--- a/Plots/Figures+Tables/Table_Yahara_FitMetrics.xlsx
+++ b/Plots/Figures+Tables/Table_Yahara_FitMetrics.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19152" windowHeight="6948"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19155" windowHeight="6945"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>PCR fit metrics for evapotranspiration (ET), drainage (DR), and runoff (RO). Data shown are for validation data only. NSE=Nash-Sutcliffe Efficiency, RMSE=Root Mean Squared Error, NRMSE=Normalized Root Mean Squared Error.</t>
+      <t>PLS fit metrics for evapotranspiration (ET), drainage (DR), and runoff (RO). Data shown are for validation data only. NSE=Nash-Sutcliffe Efficiency, RMSE=Root Mean Squared Error, NRMSE=Normalized Root Mean Squared Error.</t>
     </r>
   </si>
 </sst>
@@ -71,7 +71,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -113,7 +113,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -278,10 +278,12 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -291,10 +293,12 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -304,17 +308,17 @@
       <right style="thick">
         <color auto="1"/>
       </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
         <color auto="1"/>
       </right>
       <top/>
@@ -322,68 +326,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
+      <left/>
+      <right style="thick">
         <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="double">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="double">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="double">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
+      <bottom style="double">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -393,7 +341,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -428,6 +376,35 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -436,60 +413,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -775,44 +698,46 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:J17"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" style="1" customWidth="1"/>
-    <col min="2" max="6" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="12" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="13" t="s">
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="14"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I3" s="30"/>
+      <c r="J3" s="31"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -844,423 +769,423 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="15">
-        <v>0.52877393056827404</v>
-      </c>
-      <c r="C5" s="16">
-        <v>0.72391660952653802</v>
-      </c>
-      <c r="D5" s="17">
-        <v>0.79285184028550204</v>
-      </c>
-      <c r="E5" s="15">
-        <v>0.66561706994251502</v>
-      </c>
-      <c r="F5" s="16">
-        <v>4.1294322643431398</v>
-      </c>
-      <c r="G5" s="17">
-        <v>1.0102909550283801</v>
-      </c>
-      <c r="H5" s="24">
-        <v>0.13436896906052001</v>
-      </c>
-      <c r="I5" s="25">
-        <v>8.7761609403928201E-2</v>
-      </c>
-      <c r="J5" s="26">
-        <v>4.2747674145291098E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="25">
+        <v>0.29893383442536697</v>
+      </c>
+      <c r="C5" s="25">
+        <v>0.70860028650691798</v>
+      </c>
+      <c r="D5" s="26">
+        <v>0.346928791629669</v>
+      </c>
+      <c r="E5" s="21">
+        <v>0.804591360177628</v>
+      </c>
+      <c r="F5" s="21">
+        <v>3.1679712538651099</v>
+      </c>
+      <c r="G5" s="22">
+        <v>0.65182536353795795</v>
+      </c>
+      <c r="H5">
+        <v>0.21103607472916999</v>
+      </c>
+      <c r="I5">
+        <v>0.128962526186852</v>
+      </c>
+      <c r="J5" s="18">
+        <v>0.196400687092041</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="B6" s="18">
-        <v>0.12786347867125999</v>
-      </c>
-      <c r="C6" s="19">
-        <v>0.72066391149246301</v>
-      </c>
-      <c r="D6" s="20">
-        <v>0.66569341025104001</v>
-      </c>
-      <c r="E6" s="18">
-        <v>1.6533220322372</v>
-      </c>
-      <c r="F6" s="19">
-        <v>3.9957870289390902</v>
-      </c>
-      <c r="G6" s="20">
-        <v>1.42751511049294</v>
-      </c>
-      <c r="H6" s="27">
-        <v>0.148993516889383</v>
-      </c>
-      <c r="I6" s="28">
-        <v>7.7193616142308893E-2</v>
-      </c>
-      <c r="J6" s="29">
-        <v>8.6979272856261197E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="25">
+        <v>0.65124718477184496</v>
+      </c>
+      <c r="C6" s="25">
+        <v>0.62058876421443299</v>
+      </c>
+      <c r="D6" s="27">
+        <v>5.2844291024319298E-2</v>
+      </c>
+      <c r="E6" s="21">
+        <v>0.70562264427237897</v>
+      </c>
+      <c r="F6" s="21">
+        <v>3.4867513528893301</v>
+      </c>
+      <c r="G6" s="23">
+        <v>1.8455722280709099</v>
+      </c>
+      <c r="H6">
+        <v>0.14467025479491</v>
+      </c>
+      <c r="I6">
+        <v>0.19239143537475301</v>
+      </c>
+      <c r="J6" s="19">
+        <v>0.25539112086590599</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>3</v>
       </c>
-      <c r="B7" s="18">
-        <v>0.75798132123344097</v>
-      </c>
-      <c r="C7" s="19">
-        <v>0.82668299229264997</v>
-      </c>
-      <c r="D7" s="20">
-        <v>0.86631924086719003</v>
-      </c>
-      <c r="E7" s="18">
-        <v>3.04503336438807</v>
-      </c>
-      <c r="F7" s="19">
-        <v>4.2237424461394797</v>
-      </c>
-      <c r="G7" s="20">
-        <v>3.42593951885345</v>
-      </c>
-      <c r="H7" s="27">
-        <v>0.10010338304357699</v>
-      </c>
-      <c r="I7" s="28">
-        <v>6.5020446386915107E-2</v>
-      </c>
-      <c r="J7" s="29">
-        <v>4.9368941131758E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="25">
+        <v>0.76395736687242199</v>
+      </c>
+      <c r="C7" s="25">
+        <v>0.90885182390155494</v>
+      </c>
+      <c r="D7" s="27">
+        <v>0.94324455161880705</v>
+      </c>
+      <c r="E7" s="21">
+        <v>1.47399021054301</v>
+      </c>
+      <c r="F7" s="21">
+        <v>2.6102767369393298</v>
+      </c>
+      <c r="G7" s="23">
+        <v>1.7628949131010301</v>
+      </c>
+      <c r="H7">
+        <v>9.7897527341928706E-2</v>
+      </c>
+      <c r="I7">
+        <v>7.3081863038702996E-2</v>
+      </c>
+      <c r="J7" s="19">
+        <v>5.52439265093677E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="18">
-        <v>0.64964350180925801</v>
-      </c>
-      <c r="C8" s="19">
-        <v>0.86493804257019002</v>
-      </c>
-      <c r="D8" s="20">
-        <v>0.93411224789101899</v>
-      </c>
-      <c r="E8" s="18">
-        <v>4.4611902095220799</v>
-      </c>
-      <c r="F8" s="19">
-        <v>4.1150752672355901</v>
-      </c>
-      <c r="G8" s="20">
-        <v>2.29878985314914</v>
-      </c>
-      <c r="H8" s="27">
-        <v>0.113392816530569</v>
-      </c>
-      <c r="I8" s="28">
-        <v>7.2401327535662793E-2</v>
-      </c>
-      <c r="J8" s="29">
-        <v>4.1909147838910497E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="25">
+        <v>0.80815607934132405</v>
+      </c>
+      <c r="C8" s="25">
+        <v>0.93238912653415795</v>
+      </c>
+      <c r="D8" s="27">
+        <v>0.91624517287088103</v>
+      </c>
+      <c r="E8" s="21">
+        <v>3.51615177962818</v>
+      </c>
+      <c r="F8" s="21">
+        <v>3.1846089765891401</v>
+      </c>
+      <c r="G8" s="23">
+        <v>1.6087365662969999</v>
+      </c>
+      <c r="H8">
+        <v>0.128687662104607</v>
+      </c>
+      <c r="I8">
+        <v>6.73032454641911E-2</v>
+      </c>
+      <c r="J8" s="19">
+        <v>7.8258353801646904E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="B9" s="18">
-        <v>0.63983790709042399</v>
-      </c>
-      <c r="C9" s="19">
-        <v>0.838893229515146</v>
-      </c>
-      <c r="D9" s="20">
-        <v>0.92358447017030398</v>
-      </c>
-      <c r="E9" s="18">
-        <v>6.6282928523501399</v>
-      </c>
-      <c r="F9" s="19">
-        <v>5.1017711362804699</v>
-      </c>
-      <c r="G9" s="20">
-        <v>3.6680138659025898</v>
-      </c>
-      <c r="H9" s="27">
-        <v>0.107492555761212</v>
-      </c>
-      <c r="I9" s="28">
-        <v>6.7027677912535E-2</v>
-      </c>
-      <c r="J9" s="29">
-        <v>4.6916550478936399E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="25">
+        <v>0.70865603575751401</v>
+      </c>
+      <c r="C9" s="25">
+        <v>0.74148793000023405</v>
+      </c>
+      <c r="D9" s="27">
+        <v>0.93000588967129805</v>
+      </c>
+      <c r="E9" s="21">
+        <v>3.6879169312191098</v>
+      </c>
+      <c r="F9" s="21">
+        <v>4.2758214731234201</v>
+      </c>
+      <c r="G9" s="23">
+        <v>3.4627594374599999</v>
+      </c>
+      <c r="H9">
+        <v>0.12852024745267099</v>
+      </c>
+      <c r="I9">
+        <v>0.118782225315693</v>
+      </c>
+      <c r="J9" s="19">
+        <v>5.32952224504573E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>6</v>
       </c>
-      <c r="B10" s="18">
-        <v>0.71985447710110395</v>
-      </c>
-      <c r="C10" s="19">
-        <v>0.80159807726515397</v>
-      </c>
-      <c r="D10" s="20">
-        <v>0.94258838191362504</v>
-      </c>
-      <c r="E10" s="18">
-        <v>7.7410854481734397</v>
-      </c>
-      <c r="F10" s="19">
-        <v>6.4969864200300602</v>
-      </c>
-      <c r="G10" s="20">
-        <v>6.6846023725425399</v>
-      </c>
-      <c r="H10" s="27">
-        <v>0.100002376919149</v>
-      </c>
-      <c r="I10" s="28">
-        <v>7.4233930830393494E-2</v>
-      </c>
-      <c r="J10" s="29">
-        <v>3.9574187645028201E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="25">
+        <v>0.76159262463938504</v>
+      </c>
+      <c r="C10" s="25">
+        <v>0.86785168659198597</v>
+      </c>
+      <c r="D10" s="27">
+        <v>0.96187015229288797</v>
+      </c>
+      <c r="E10" s="21">
+        <v>5.97661572268039</v>
+      </c>
+      <c r="F10" s="21">
+        <v>4.6561979726226603</v>
+      </c>
+      <c r="G10" s="23">
+        <v>5.0653660160152896</v>
+      </c>
+      <c r="H10">
+        <v>0.121701774036129</v>
+      </c>
+      <c r="I10">
+        <v>9.3954182491140001E-2</v>
+      </c>
+      <c r="J10" s="19">
+        <v>6.1598716064428703E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>7</v>
       </c>
-      <c r="B11" s="18">
-        <v>0.67567398211942298</v>
-      </c>
-      <c r="C11" s="19">
-        <v>0.78196589799903005</v>
-      </c>
-      <c r="D11" s="20">
-        <v>0.88862050801562997</v>
-      </c>
-      <c r="E11" s="18">
-        <v>6.5209827646230201</v>
-      </c>
-      <c r="F11" s="19">
-        <v>7.5172601782427604</v>
-      </c>
-      <c r="G11" s="20">
-        <v>10.7003410077719</v>
-      </c>
-      <c r="H11" s="27">
-        <v>0.10705368090542</v>
-      </c>
-      <c r="I11" s="28">
-        <v>7.8222854064835395E-2</v>
-      </c>
-      <c r="J11" s="29">
-        <v>3.8732636282527398E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="25">
+        <v>0.48103160170938702</v>
+      </c>
+      <c r="C11" s="25">
+        <v>0.927175768043764</v>
+      </c>
+      <c r="D11" s="27">
+        <v>0.96377431621462994</v>
+      </c>
+      <c r="E11" s="21">
+        <v>9.6186561159850399</v>
+      </c>
+      <c r="F11" s="21">
+        <v>4.1644458324254199</v>
+      </c>
+      <c r="G11" s="23">
+        <v>2.9710109127481501</v>
+      </c>
+      <c r="H11">
+        <v>0.18244764142058301</v>
+      </c>
+      <c r="I11">
+        <v>5.47075450154531E-2</v>
+      </c>
+      <c r="J11" s="19">
+        <v>4.4504787472943702E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>8</v>
       </c>
-      <c r="B12" s="18">
-        <v>0.64059180417040695</v>
-      </c>
-      <c r="C12" s="19">
-        <v>0.78031816868951898</v>
-      </c>
-      <c r="D12" s="20">
-        <v>0.91290913516208105</v>
-      </c>
-      <c r="E12" s="18">
-        <v>8.1379739206923691</v>
-      </c>
-      <c r="F12" s="19">
-        <v>7.3531648434077397</v>
-      </c>
-      <c r="G12" s="20">
-        <v>8.0994752069926204</v>
-      </c>
-      <c r="H12" s="27">
-        <v>0.109146470400919</v>
-      </c>
-      <c r="I12" s="28">
-        <v>8.1734515805929706E-2</v>
-      </c>
-      <c r="J12" s="29">
-        <v>3.6504913642407502E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="25">
+        <v>0.38147280075054901</v>
+      </c>
+      <c r="C12" s="25">
+        <v>0.85638136393992104</v>
+      </c>
+      <c r="D12" s="27">
+        <v>0.98820251124196501</v>
+      </c>
+      <c r="E12" s="21">
+        <v>7.4421339957729096</v>
+      </c>
+      <c r="F12" s="21">
+        <v>5.3040164119123698</v>
+      </c>
+      <c r="G12" s="23">
+        <v>1.58511589033216</v>
+      </c>
+      <c r="H12">
+        <v>0.225357101708963</v>
+      </c>
+      <c r="I12">
+        <v>7.8174199009052495E-2</v>
+      </c>
+      <c r="J12" s="19">
+        <v>2.31773056894292E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>9</v>
       </c>
-      <c r="B13" s="18">
-        <v>0.67648716421025801</v>
-      </c>
-      <c r="C13" s="19">
-        <v>0.72579389628064395</v>
-      </c>
-      <c r="D13" s="20">
-        <v>0.90839596286341695</v>
-      </c>
-      <c r="E13" s="18">
-        <v>6.0697450695017601</v>
-      </c>
-      <c r="F13" s="19">
-        <v>7.1077380669980501</v>
-      </c>
-      <c r="G13" s="20">
-        <v>4.9523075117807096</v>
-      </c>
-      <c r="H13" s="27">
-        <v>0.10277025381126501</v>
-      </c>
-      <c r="I13" s="28">
-        <v>8.6840088973245605E-2</v>
-      </c>
-      <c r="J13" s="29">
-        <v>4.2888950941949798E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="25">
+        <v>0.58046446284638098</v>
+      </c>
+      <c r="C13" s="25">
+        <v>0.85502196792200402</v>
+      </c>
+      <c r="D13" s="27">
+        <v>0.93861517313419995</v>
+      </c>
+      <c r="E13" s="21">
+        <v>5.0441841735906197</v>
+      </c>
+      <c r="F13" s="21">
+        <v>4.7579193347278803</v>
+      </c>
+      <c r="G13" s="23">
+        <v>1.2542850256962801</v>
+      </c>
+      <c r="H13">
+        <v>0.123815550991665</v>
+      </c>
+      <c r="I13">
+        <v>7.6662882587368295E-2</v>
+      </c>
+      <c r="J13" s="19">
+        <v>6.2726984928789795E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>10</v>
       </c>
-      <c r="B14" s="18">
-        <v>0.49336756973413998</v>
-      </c>
-      <c r="C14" s="19">
-        <v>0.69919433774307704</v>
-      </c>
-      <c r="D14" s="20">
-        <v>0.918647527158998</v>
-      </c>
-      <c r="E14" s="18">
-        <v>4.93771368236317</v>
-      </c>
-      <c r="F14" s="19">
-        <v>6.7403486544860902</v>
-      </c>
-      <c r="G14" s="20">
-        <v>2.59199494147063</v>
-      </c>
-      <c r="H14" s="27">
-        <v>0.13492436309960201</v>
-      </c>
-      <c r="I14" s="28">
-        <v>9.3149606264658305E-2</v>
-      </c>
-      <c r="J14" s="29">
-        <v>4.9049267166140401E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="25">
+        <v>0.71415848574018503</v>
+      </c>
+      <c r="C14" s="25">
+        <v>0.80620875392534397</v>
+      </c>
+      <c r="D14" s="27">
+        <v>0.94858657993422502</v>
+      </c>
+      <c r="E14" s="21">
+        <v>3.2407535156645202</v>
+      </c>
+      <c r="F14" s="21">
+        <v>4.8293841982103602</v>
+      </c>
+      <c r="G14" s="23">
+        <v>0.83723586248688298</v>
+      </c>
+      <c r="H14">
+        <v>0.12435885609154999</v>
+      </c>
+      <c r="I14">
+        <v>9.4918819568226898E-2</v>
+      </c>
+      <c r="J14" s="19">
+        <v>4.0057710265424401E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>11</v>
       </c>
-      <c r="B15" s="18">
-        <v>0.56498933173089905</v>
-      </c>
-      <c r="C15" s="19">
-        <v>0.72059464804013296</v>
-      </c>
-      <c r="D15" s="20">
-        <v>0.64917480904940605</v>
-      </c>
-      <c r="E15" s="18">
-        <v>2.9428270379260599</v>
-      </c>
-      <c r="F15" s="19">
-        <v>6.2145533510822197</v>
-      </c>
-      <c r="G15" s="20">
-        <v>3.6985686933703401</v>
-      </c>
-      <c r="H15" s="27">
-        <v>0.14760296428765701</v>
-      </c>
-      <c r="I15" s="28">
-        <v>7.2576722531295906E-2</v>
-      </c>
-      <c r="J15" s="29">
-        <v>9.4371645731661596E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="25">
+        <v>0.77456096119325901</v>
+      </c>
+      <c r="C15" s="25">
+        <v>0.79488855578837703</v>
+      </c>
+      <c r="D15" s="27">
+        <v>0.79606031506575703</v>
+      </c>
+      <c r="E15" s="21">
+        <v>1.8714758855612701</v>
+      </c>
+      <c r="F15" s="21">
+        <v>3.7270223181737898</v>
+      </c>
+      <c r="G15" s="23">
+        <v>1.5457588196996901</v>
+      </c>
+      <c r="H15">
+        <v>0.115872090570051</v>
+      </c>
+      <c r="I15">
+        <v>0.110646453091231</v>
+      </c>
+      <c r="J15" s="19">
+        <v>8.7484912712915405E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>12</v>
       </c>
-      <c r="B16" s="18">
-        <v>5.6913421389897897E-2</v>
-      </c>
-      <c r="C16" s="19">
-        <v>0.71409519414531397</v>
-      </c>
-      <c r="D16" s="20">
-        <v>0.37716765326223001</v>
-      </c>
-      <c r="E16" s="18">
-        <v>1.3944688095166999</v>
-      </c>
-      <c r="F16" s="19">
-        <v>5.3648388460406897</v>
-      </c>
-      <c r="G16" s="20">
-        <v>2.3512925038685699</v>
-      </c>
-      <c r="H16" s="27">
-        <v>0.129570335783941</v>
-      </c>
-      <c r="I16" s="28">
-        <v>7.7776585067080295E-2</v>
-      </c>
-      <c r="J16" s="29">
-        <v>7.4614891360581095E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="25">
+        <v>-0.27502169401561499</v>
+      </c>
+      <c r="C16" s="25">
+        <v>0.70066022285516705</v>
+      </c>
+      <c r="D16" s="28">
+        <v>0.91341532171165296</v>
+      </c>
+      <c r="E16" s="21">
+        <v>1.22581387831991</v>
+      </c>
+      <c r="F16" s="21">
+        <v>4.0955610821816002</v>
+      </c>
+      <c r="G16" s="24">
+        <v>0.297933672197779</v>
+      </c>
+      <c r="H16">
+        <v>0.19767384704006799</v>
+      </c>
+      <c r="I16">
+        <v>0.12035152993867999</v>
+      </c>
+      <c r="J16" s="20">
+        <v>6.4945188778152002E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="21">
-        <v>0.98260440142260796</v>
-      </c>
-      <c r="C17" s="22">
-        <v>0.79335917487038998</v>
-      </c>
-      <c r="D17" s="23">
-        <v>0.91971752083478098</v>
-      </c>
-      <c r="E17" s="21">
-        <v>5.1379881581402298</v>
-      </c>
-      <c r="F17" s="22">
-        <v>5.8449687352603501</v>
-      </c>
-      <c r="G17" s="23">
-        <v>5.0725469340461098</v>
-      </c>
-      <c r="H17" s="30">
-        <v>3.8654656464262901E-2</v>
-      </c>
-      <c r="I17" s="31">
-        <v>5.83904243245464E-2</v>
-      </c>
-      <c r="J17" s="32">
-        <v>1.8361388228632501E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="B17" s="12">
+        <v>0.983606090140274</v>
+      </c>
+      <c r="C17" s="13">
+        <v>0.87027811199502403</v>
+      </c>
+      <c r="D17" s="14">
+        <v>0.96261759827222004</v>
+      </c>
+      <c r="E17" s="12">
+        <v>4.5994304965291901</v>
+      </c>
+      <c r="F17" s="13">
+        <v>4.0948325965623704</v>
+      </c>
+      <c r="G17" s="14">
+        <v>2.2961436622476099</v>
+      </c>
+      <c r="H17" s="15">
+        <v>3.61305230379129E-2</v>
+      </c>
+      <c r="I17" s="16">
+        <v>5.3369509068495802E-2</v>
+      </c>
+      <c r="J17" s="17">
+        <v>2.78573179421399E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="E3:G3"/>

--- a/Plots/Figures+Tables/Table_Yahara_FitMetrics.xlsx
+++ b/Plots/Figures+Tables/Table_Yahara_FitMetrics.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19155" windowHeight="6945"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19152" windowHeight="6948"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -341,7 +341,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -394,9 +394,6 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -414,6 +411,10 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -698,46 +699,46 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="A3" sqref="A3:J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="29" t="s">
+      <c r="C3" s="27"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="30" t="s">
+      <c r="F3" s="27"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="30"/>
-      <c r="J3" s="31"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I3" s="27"/>
+      <c r="J3" s="28"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -769,391 +770,391 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="22">
         <v>0.29893383442536697</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="22">
         <v>0.70860028650691798</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="23">
         <v>0.346928791629669</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="18">
         <v>0.804591360177628</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="18">
         <v>3.1679712538651099</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="19">
         <v>0.65182536353795795</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="29">
         <v>0.21103607472916999</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="29">
         <v>0.128962526186852</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="30">
         <v>0.196400687092041</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="22">
         <v>0.65124718477184496</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="22">
         <v>0.62058876421443299</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="24">
         <v>5.2844291024319298E-2</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="18">
         <v>0.70562264427237897</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="18">
         <v>3.4867513528893301</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="20">
         <v>1.8455722280709099</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="29">
         <v>0.14467025479491</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="29">
         <v>0.19239143537475301</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="31">
         <v>0.25539112086590599</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>3</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="22">
         <v>0.76395736687242199</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="22">
         <v>0.90885182390155494</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="24">
         <v>0.94324455161880705</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="18">
         <v>1.47399021054301</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="18">
         <v>2.6102767369393298</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="20">
         <v>1.7628949131010301</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="29">
         <v>9.7897527341928706E-2</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="29">
         <v>7.3081863038702996E-2</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="31">
         <v>5.52439265093677E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="22">
         <v>0.80815607934132405</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="22">
         <v>0.93238912653415795</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="24">
         <v>0.91624517287088103</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="18">
         <v>3.51615177962818</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="18">
         <v>3.1846089765891401</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="20">
         <v>1.6087365662969999</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="29">
         <v>0.128687662104607</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="29">
         <v>6.73032454641911E-2</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="31">
         <v>7.8258353801646904E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="22">
         <v>0.70865603575751401</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="22">
         <v>0.74148793000023405</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="24">
         <v>0.93000588967129805</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="18">
         <v>3.6879169312191098</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="18">
         <v>4.2758214731234201</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="20">
         <v>3.4627594374599999</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="29">
         <v>0.12852024745267099</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="29">
         <v>0.118782225315693</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="31">
         <v>5.32952224504573E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>6</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="22">
         <v>0.76159262463938504</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="22">
         <v>0.86785168659198597</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="24">
         <v>0.96187015229288797</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="18">
         <v>5.97661572268039</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="18">
         <v>4.6561979726226603</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="20">
         <v>5.0653660160152896</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="29">
         <v>0.121701774036129</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="29">
         <v>9.3954182491140001E-2</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="31">
         <v>6.1598716064428703E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>7</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="22">
         <v>0.48103160170938702</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="22">
         <v>0.927175768043764</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="24">
         <v>0.96377431621462994</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="18">
         <v>9.6186561159850399</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="18">
         <v>4.1644458324254199</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="20">
         <v>2.9710109127481501</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="29">
         <v>0.18244764142058301</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="29">
         <v>5.47075450154531E-2</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J11" s="31">
         <v>4.4504787472943702E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>8</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="22">
         <v>0.38147280075054901</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="22">
         <v>0.85638136393992104</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="24">
         <v>0.98820251124196501</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="18">
         <v>7.4421339957729096</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="18">
         <v>5.3040164119123698</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="20">
         <v>1.58511589033216</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="29">
         <v>0.225357101708963</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="29">
         <v>7.8174199009052495E-2</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="31">
         <v>2.31773056894292E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>9</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="22">
         <v>0.58046446284638098</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="22">
         <v>0.85502196792200402</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="24">
         <v>0.93861517313419995</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="18">
         <v>5.0441841735906197</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="18">
         <v>4.7579193347278803</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="20">
         <v>1.2542850256962801</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="29">
         <v>0.123815550991665</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="29">
         <v>7.6662882587368295E-2</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="31">
         <v>6.2726984928789795E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>10</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="22">
         <v>0.71415848574018503</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="22">
         <v>0.80620875392534397</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="24">
         <v>0.94858657993422502</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="18">
         <v>3.2407535156645202</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="18">
         <v>4.8293841982103602</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="20">
         <v>0.83723586248688298</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="29">
         <v>0.12435885609154999</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="29">
         <v>9.4918819568226898E-2</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="31">
         <v>4.0057710265424401E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>11</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="22">
         <v>0.77456096119325901</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="22">
         <v>0.79488855578837703</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="24">
         <v>0.79606031506575703</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="18">
         <v>1.8714758855612701</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="18">
         <v>3.7270223181737898</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="20">
         <v>1.5457588196996901</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="29">
         <v>0.115872090570051</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="29">
         <v>0.110646453091231</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="31">
         <v>8.7484912712915405E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>12</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="22">
         <v>-0.27502169401561499</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="22">
         <v>0.70066022285516705</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="25">
         <v>0.91341532171165296</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="18">
         <v>1.22581387831991</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="18">
         <v>4.0955610821816002</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="21">
         <v>0.297933672197779</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="29">
         <v>0.19767384704006799</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="29">
         <v>0.12035152993867999</v>
       </c>
-      <c r="J16" s="20">
+      <c r="J16" s="32">
         <v>6.4945188778152002E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>6</v>
       </c>
@@ -1185,7 +1186,7 @@
         <v>2.78573179421399E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="E3:G3"/>
